--- a/data/2023년 1학기 정규 시간표.xlsx
+++ b/data/2023년 1학기 정규 시간표.xlsx
@@ -50437,7 +50437,7 @@
       </c>
       <c r="I872" t="inlineStr">
         <is>
-          <t>노기남</t>
+          <t>정종화</t>
         </is>
       </c>
       <c r="J872" t="inlineStr">
@@ -81385,21 +81385,9 @@
           <t>0</t>
         </is>
       </c>
-      <c r="I1393" t="inlineStr">
-        <is>
-          <t>취업정보</t>
-        </is>
-      </c>
-      <c r="J1393" t="inlineStr">
-        <is>
-          <t>화5</t>
-        </is>
-      </c>
-      <c r="K1393" t="inlineStr">
-        <is>
-          <t>사무엘관109호강의실</t>
-        </is>
-      </c>
+      <c r="I1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr"/>
+      <c r="K1393" t="inlineStr"/>
       <c r="L1393" t="inlineStr">
         <is>
           <t>인문사회대학</t>
@@ -81977,7 +81965,7 @@
       </c>
       <c r="K1403" t="inlineStr">
         <is>
-          <t>다니엘관201호(小)강의실</t>
+          <t>사무엘관109호강의실</t>
         </is>
       </c>
       <c r="L1403" t="inlineStr">
@@ -82610,12 +82598,12 @@
       </c>
       <c r="J1414" t="inlineStr">
         <is>
-          <t>수10~12</t>
+          <t>월3~5</t>
         </is>
       </c>
       <c r="K1414" t="inlineStr">
         <is>
-          <t>다니엘관201호(小)강의실</t>
+          <t>바울관403호강의실</t>
         </is>
       </c>
       <c r="L1414" t="inlineStr">
@@ -82847,7 +82835,7 @@
       </c>
       <c r="K1418" t="inlineStr">
         <is>
-          <t>사무엘관109호강의실</t>
+          <t>다니엘관204호(小)(교필토익전용)강의실</t>
         </is>
       </c>
       <c r="L1418" t="inlineStr">
@@ -90379,7 +90367,7 @@
       </c>
       <c r="K1548" t="inlineStr">
         <is>
-          <t>바울관401호식음료실습실</t>
+          <t>요한관423호(中)강의실</t>
         </is>
       </c>
       <c r="L1548" t="inlineStr">

--- a/data/2023년 1학기 정규 시간표.xlsx
+++ b/data/2023년 1학기 정규 시간표.xlsx
@@ -38241,7 +38241,7 @@
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>1419</t>
+          <t>1183</t>
         </is>
       </c>
       <c r="B660" t="inlineStr">
@@ -38282,7 +38282,7 @@
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>화1~3</t>
+          <t>화5~7</t>
         </is>
       </c>
       <c r="K660" t="inlineStr">
@@ -38299,7 +38299,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>1183</t>
+          <t>1419</t>
         </is>
       </c>
       <c r="B661" t="inlineStr">
@@ -38340,7 +38340,7 @@
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>화5~7</t>
+          <t>화1~3</t>
         </is>
       </c>
       <c r="K661" t="inlineStr">
@@ -38357,7 +38357,7 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>1443</t>
         </is>
       </c>
       <c r="B662" t="inlineStr">
@@ -38398,7 +38398,7 @@
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>수6~8</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K662" t="inlineStr">
@@ -38415,7 +38415,7 @@
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>1184</t>
         </is>
       </c>
       <c r="B663" t="inlineStr">
@@ -38456,7 +38456,7 @@
       </c>
       <c r="J663" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>월1~2,월4</t>
         </is>
       </c>
       <c r="K663" t="inlineStr">
@@ -38473,7 +38473,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>1184</t>
+          <t>1444</t>
         </is>
       </c>
       <c r="B664" t="inlineStr">
@@ -38514,7 +38514,7 @@
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>월1~2,월4</t>
+          <t>수6~8</t>
         </is>
       </c>
       <c r="K664" t="inlineStr">
@@ -40155,7 +40155,7 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>1205</t>
+          <t>1430</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
@@ -40196,7 +40196,7 @@
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>월6~8</t>
+          <t>월2~4</t>
         </is>
       </c>
       <c r="K693" t="inlineStr">
@@ -40213,7 +40213,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>1205</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
@@ -40254,7 +40254,7 @@
       </c>
       <c r="J694" t="inlineStr">
         <is>
-          <t>월2~4</t>
+          <t>월6~8</t>
         </is>
       </c>
       <c r="K694" t="inlineStr">
@@ -40523,7 +40523,7 @@
       </c>
       <c r="I699" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>김한호</t>
         </is>
       </c>
       <c r="J699" t="inlineStr"/>
@@ -40573,7 +40573,7 @@
       </c>
       <c r="I700" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>류한철</t>
         </is>
       </c>
       <c r="J700" t="inlineStr"/>
@@ -40811,7 +40811,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>1119</t>
+          <t>1120</t>
         </is>
       </c>
       <c r="B705" t="inlineStr">
@@ -40847,7 +40847,7 @@
       </c>
       <c r="I705" t="inlineStr">
         <is>
-          <t>김성완</t>
+          <t>김정숙</t>
         </is>
       </c>
       <c r="J705" t="inlineStr">
@@ -40857,7 +40857,7 @@
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>제1실습관410호(컴과실습실)</t>
+          <t>제1실습관411호(컴과실습실)</t>
         </is>
       </c>
       <c r="L705" t="inlineStr">
@@ -40927,7 +40927,7 @@
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>1078</t>
+          <t>1119</t>
         </is>
       </c>
       <c r="B707" t="inlineStr">
@@ -40963,7 +40963,7 @@
       </c>
       <c r="I707" t="inlineStr">
         <is>
-          <t>정수목</t>
+          <t>김성완</t>
         </is>
       </c>
       <c r="J707" t="inlineStr">
@@ -40973,7 +40973,7 @@
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>제1실습관409호(컴과실습실)</t>
+          <t>제1실습관410호(컴과실습실)</t>
         </is>
       </c>
       <c r="L707" t="inlineStr">
@@ -40985,7 +40985,7 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>1108</t>
+          <t>1078</t>
         </is>
       </c>
       <c r="B708" t="inlineStr">
@@ -41021,7 +41021,7 @@
       </c>
       <c r="I708" t="inlineStr">
         <is>
-          <t>조충희</t>
+          <t>정수목</t>
         </is>
       </c>
       <c r="J708" t="inlineStr">
@@ -41031,7 +41031,7 @@
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>제1실습관404호(컴과실습실)</t>
+          <t>제1실습관409호(컴과실습실)</t>
         </is>
       </c>
       <c r="L708" t="inlineStr">
@@ -41043,7 +41043,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1108</t>
         </is>
       </c>
       <c r="B709" t="inlineStr">
@@ -41079,7 +41079,7 @@
       </c>
       <c r="I709" t="inlineStr">
         <is>
-          <t>김정숙</t>
+          <t>조충희</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
@@ -41089,7 +41089,7 @@
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>제1실습관411호(컴과실습실)</t>
+          <t>제1실습관404호(컴과실습실)</t>
         </is>
       </c>
       <c r="L709" t="inlineStr">
@@ -41217,7 +41217,7 @@
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1111</t>
         </is>
       </c>
       <c r="B712" t="inlineStr">
@@ -41258,7 +41258,7 @@
       </c>
       <c r="J712" t="inlineStr">
         <is>
-          <t>목2~4</t>
+          <t>목6~8</t>
         </is>
       </c>
       <c r="K712" t="inlineStr">
@@ -41275,7 +41275,7 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>1111</t>
+          <t>1091</t>
         </is>
       </c>
       <c r="B713" t="inlineStr">
@@ -41316,7 +41316,7 @@
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>목6~8</t>
+          <t>목2~4</t>
         </is>
       </c>
       <c r="K713" t="inlineStr">
@@ -41507,7 +41507,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>1109</t>
+          <t>1079</t>
         </is>
       </c>
       <c r="B717" t="inlineStr">
@@ -41548,12 +41548,12 @@
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>월4,화7~8</t>
+          <t>월2,화5~6</t>
         </is>
       </c>
       <c r="K717" t="inlineStr">
         <is>
-          <t>제1실습관404호(컴과실습실),제1실습관409호(컴과실습실)</t>
+          <t>제1실습관403호(컴과실습실),제1실습관409호(컴과실습실)</t>
         </is>
       </c>
       <c r="L717" t="inlineStr">
@@ -41565,7 +41565,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>1109</t>
         </is>
       </c>
       <c r="B718" t="inlineStr">
@@ -41606,12 +41606,12 @@
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>월2,화5~6</t>
+          <t>월4,화7~8</t>
         </is>
       </c>
       <c r="K718" t="inlineStr">
         <is>
-          <t>제1실습관403호(컴과실습실),제1실습관409호(컴과실습실)</t>
+          <t>제1실습관404호(컴과실습실),제1실습관409호(컴과실습실)</t>
         </is>
       </c>
       <c r="L718" t="inlineStr">
@@ -41797,7 +41797,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>1660</t>
+          <t>1661</t>
         </is>
       </c>
       <c r="B722" t="inlineStr">
@@ -41838,7 +41838,7 @@
       </c>
       <c r="J722" t="inlineStr">
         <is>
-          <t>월5~6</t>
+          <t>월7~8</t>
         </is>
       </c>
       <c r="K722" t="inlineStr">
@@ -41855,7 +41855,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>1661</t>
+          <t>1660</t>
         </is>
       </c>
       <c r="B723" t="inlineStr">
@@ -41896,7 +41896,7 @@
       </c>
       <c r="J723" t="inlineStr">
         <is>
-          <t>월7~8</t>
+          <t>월5~6</t>
         </is>
       </c>
       <c r="K723" t="inlineStr">
@@ -41913,7 +41913,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>1663</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="B724" t="inlineStr">
@@ -41954,7 +41954,7 @@
       </c>
       <c r="J724" t="inlineStr">
         <is>
-          <t>목7~8</t>
+          <t>수7~8</t>
         </is>
       </c>
       <c r="K724" t="inlineStr">
@@ -41971,7 +41971,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>1662</t>
+          <t>1663</t>
         </is>
       </c>
       <c r="B725" t="inlineStr">
@@ -42012,7 +42012,7 @@
       </c>
       <c r="J725" t="inlineStr">
         <is>
-          <t>수7~8</t>
+          <t>목7~8</t>
         </is>
       </c>
       <c r="K725" t="inlineStr">
@@ -42087,7 +42087,7 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>1353</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="B727" t="inlineStr">
@@ -42128,12 +42128,12 @@
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>화8,수8~9</t>
+          <t>월3~5</t>
         </is>
       </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>제1실습관411호(컴과실습실)</t>
+          <t>제1실습관409호(컴과실습실)</t>
         </is>
       </c>
       <c r="L727" t="inlineStr">
@@ -42145,7 +42145,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>1353</t>
         </is>
       </c>
       <c r="B728" t="inlineStr">
@@ -42186,12 +42186,12 @@
       </c>
       <c r="J728" t="inlineStr">
         <is>
-          <t>월3~5</t>
+          <t>화8,수8~9</t>
         </is>
       </c>
       <c r="K728" t="inlineStr">
         <is>
-          <t>제1실습관409호(컴과실습실)</t>
+          <t>제1실습관411호(컴과실습실)</t>
         </is>
       </c>
       <c r="L728" t="inlineStr">
@@ -42539,7 +42539,7 @@
       </c>
       <c r="I735" t="inlineStr">
         <is>
-          <t>미지정</t>
+          <t>김용승</t>
         </is>
       </c>
       <c r="J735" t="inlineStr"/>
@@ -42753,7 +42753,7 @@
     <row r="740">
       <c r="A740" t="inlineStr">
         <is>
-          <t>1117</t>
+          <t>1102</t>
         </is>
       </c>
       <c r="B740" t="inlineStr">
@@ -42794,7 +42794,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>월7,화7~8</t>
+          <t>월6,화5~6</t>
         </is>
       </c>
       <c r="K740" t="inlineStr">
@@ -42811,7 +42811,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>1102</t>
+          <t>1117</t>
         </is>
       </c>
       <c r="B741" t="inlineStr">
@@ -42852,7 +42852,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>월6,화5~6</t>
+          <t>월7,화7~8</t>
         </is>
       </c>
       <c r="K741" t="inlineStr">
@@ -42985,7 +42985,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1118</t>
         </is>
       </c>
       <c r="B744" t="inlineStr">
@@ -43026,7 +43026,7 @@
       </c>
       <c r="J744" t="inlineStr">
         <is>
-          <t>금5~7</t>
+          <t>금1~3</t>
         </is>
       </c>
       <c r="K744" t="inlineStr">
@@ -43043,7 +43043,7 @@
     <row r="745">
       <c r="A745" t="inlineStr">
         <is>
-          <t>1118</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="B745" t="inlineStr">
@@ -43084,7 +43084,7 @@
       </c>
       <c r="J745" t="inlineStr">
         <is>
-          <t>금1~3</t>
+          <t>금5~7</t>
         </is>
       </c>
       <c r="K745" t="inlineStr">
@@ -43623,7 +43623,7 @@
     <row r="755">
       <c r="A755" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>1093</t>
         </is>
       </c>
       <c r="B755" t="inlineStr">
@@ -43664,7 +43664,7 @@
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>수6,목2~3</t>
+          <t>수7,목6~7</t>
         </is>
       </c>
       <c r="K755" t="inlineStr">
@@ -43681,7 +43681,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="B756" t="inlineStr">
@@ -43722,7 +43722,7 @@
       </c>
       <c r="J756" t="inlineStr">
         <is>
-          <t>수7,목6~7</t>
+          <t>수6,목2~3</t>
         </is>
       </c>
       <c r="K756" t="inlineStr">
@@ -44087,7 +44087,7 @@
     <row r="763">
       <c r="A763" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B763" t="inlineStr">
@@ -44128,7 +44128,7 @@
       </c>
       <c r="J763" t="inlineStr">
         <is>
-          <t>화1~2,수1</t>
+          <t>화3~4,수2</t>
         </is>
       </c>
       <c r="K763" t="inlineStr">
@@ -44145,7 +44145,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="B764" t="inlineStr">
@@ -44186,7 +44186,7 @@
       </c>
       <c r="J764" t="inlineStr">
         <is>
-          <t>화3~4,수2</t>
+          <t>화1~2,수1</t>
         </is>
       </c>
       <c r="K764" t="inlineStr">
@@ -44203,7 +44203,7 @@
     <row r="765">
       <c r="A765" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>1671</t>
         </is>
       </c>
       <c r="B765" t="inlineStr">
@@ -44244,7 +44244,7 @@
       </c>
       <c r="J765" t="inlineStr">
         <is>
-          <t>화1~2,수1</t>
+          <t>화3~4,수2</t>
         </is>
       </c>
       <c r="K765" t="inlineStr">
@@ -44261,7 +44261,7 @@
     <row r="766">
       <c r="A766" t="inlineStr">
         <is>
-          <t>1671</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="B766" t="inlineStr">
@@ -44302,7 +44302,7 @@
       </c>
       <c r="J766" t="inlineStr">
         <is>
-          <t>화3~4,수2</t>
+          <t>화1~2,수1</t>
         </is>
       </c>
       <c r="K766" t="inlineStr">
@@ -49483,7 +49483,7 @@
       </c>
       <c r="C856" t="inlineStr">
         <is>
-          <t>사회복지현장의 이해(캡스톤디자인)</t>
+          <t>사회복지현장의 이해</t>
         </is>
       </c>
       <c r="D856" t="inlineStr">
@@ -49541,7 +49541,7 @@
       </c>
       <c r="C857" t="inlineStr">
         <is>
-          <t>사회복지현장의 이해(캡스톤디자인)</t>
+          <t>사회복지현장의 이해</t>
         </is>
       </c>
       <c r="D857" t="inlineStr">
@@ -64361,7 +64361,7 @@
       </c>
       <c r="K1113" t="inlineStr">
         <is>
-          <t>요한관221호(中)(교필토익전용)강의실</t>
+          <t>에스라관314호강의실</t>
         </is>
       </c>
       <c r="L1113" t="inlineStr">
@@ -66217,7 +66217,7 @@
       </c>
       <c r="K1145" t="inlineStr">
         <is>
-          <t>요한관221호(中)(교필토익전용)강의실</t>
+          <t>요한관224호(中)강의실</t>
         </is>
       </c>
       <c r="L1145" t="inlineStr">
@@ -73761,7 +73761,7 @@
       </c>
       <c r="K1269" t="inlineStr">
         <is>
-          <t>요한관224호(中)강의실</t>
+          <t>요한관222호(中)(교필토익전용)강의실</t>
         </is>
       </c>
       <c r="L1269" t="inlineStr">
@@ -81390,8 +81390,16 @@
           <t>교목처</t>
         </is>
       </c>
-      <c r="J1393" t="inlineStr"/>
-      <c r="K1393" t="inlineStr"/>
+      <c r="J1393" t="inlineStr">
+        <is>
+          <t>금13</t>
+        </is>
+      </c>
+      <c r="K1393" t="inlineStr">
+        <is>
+          <t>미지정</t>
+        </is>
+      </c>
       <c r="L1393" t="inlineStr">
         <is>
           <t>인문사회대학</t>
@@ -81921,7 +81929,7 @@
       </c>
       <c r="C1403" t="inlineStr">
         <is>
-          <t>한국학 입문 (종합설계)</t>
+          <t>한국학 입문</t>
         </is>
       </c>
       <c r="D1403" t="inlineStr">
